--- a/biology/Zoologie/Cnemarchus/Cnemarchus.xlsx
+++ b/biology/Zoologie/Cnemarchus/Cnemarchus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cnemarchus est un genre d'oiseaux de la famille des Tyrannidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les oiseaux du genre Cnemarchus se rencontrent en Amérique du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les oiseaux du genre Cnemarchus se rencontrent en Amérique du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (13 février 2024)[1] (ordre phylogénique) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (13 février 2024) (ordre phylogénique) :
 Cnemarchus erythropygius  (P.L.Sclater, 1853) – Moucherolle à croupion roux
 Cnemarchus rufipennis (Taczanowski, 1874) – Pépoaza à ailes rousses</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Cnemarchus Ridgway, 1905[1],[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Cnemarchus Ridgway, 1905,.
 </t>
         </is>
       </c>
@@ -605,10 +623,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom générique, Cnemarchus, dérive du grec ancien κνημός, knêmós, « flanc boisé d'une montagne », et ἀρχός, arkhós, « chef », et 
-pourrait donc se traduire comme, par exemple, par le « roi des flancs de montagne »[2].
+pourrait donc se traduire comme, par exemple, par le « roi des flancs de montagne ».
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Robert Ridgway, « Descriptions of some new genera of Tyrannidae, Pipridae, and Cotingidae », Proceedings of the Biological Society of Washington, Washington, Biological Society of Washington (d), vol. 18,‎ 2 septembre 1905, p. 207-210 (ISSN 0006-324X et 1943-6327, OCLC 1536434, lire en ligne)</t>
         </is>
